--- a/SuSS/2022_Sem2_ANL488_Biz_Analy_App_Proj/Potential_Students.xlsx
+++ b/SuSS/2022_Sem2_ANL488_Biz_Analy_App_Proj/Potential_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\2022_Sem2_ANL488_Biz_Analy_App_Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4F8203-CE70-4C83-950C-BCF6AFE23B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724EB4A-1CF0-448A-AA80-05ACAAEEBFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="2280" windowWidth="20175" windowHeight="12360" xr2:uid="{86001510-BBBA-4F1E-9FF3-076D222B57EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86001510-BBBA-4F1E-9FF3-076D222B57EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Due_6_Jun_2022" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -405,10 +413,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,38 +458,42 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -849,7 +862,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -893,7 +906,7 @@
       <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9">
@@ -907,27 +920,27 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="20">
         <v>4.07</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -963,19 +976,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -995,7 +1008,7 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="20">
         <v>3.84</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1005,26 +1018,26 @@
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="20">
         <v>4.3899999999999997</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1032,28 +1045,28 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="20">
         <v>4.3</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1066,7 +1079,7 @@
       <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="7"/>
     </row>
   </sheetData>
@@ -1080,8 +1093,11 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{959EDA16-E994-4C61-8F47-6DF6AB1BA39A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
